--- a/INTLINE/data/576/DOS/M212261 - Private Residential Property Price Index By Type Of Property Quarterly.xlsx
+++ b/INTLINE/data/576/DOS/M212261 - Private Residential Property Price Index By Type Of Property Quarterly.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Private Residential Property Price Index By Type Of Property, (1st Quarter 2009 = 100), Quarterly</t>
   </si>
   <si>
-    <t>Data last updated: 28/01/2022</t>
+    <t>Data last updated: 22/04/2022</t>
   </si>
   <si>
     <t>Check next release date</t>
@@ -43,6 +43,9 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 1Q </t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 4Q </t>
   </si>
   <si>
@@ -649,10 +652,16 @@
     <t>Values are shown in Singapore dollars (unless otherwise specified)</t>
   </si>
   <si>
+    <t>Related Information:</t>
+  </si>
+  <si>
+    <t>Economy Dashboards</t>
+  </si>
+  <si>
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -1060,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG31"/>
+  <dimension ref="A1:GH34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="189" width="24" customWidth="1"/>
+    <col min="1" max="190" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1632,6 +1641,9 @@
         <v>0</v>
       </c>
       <c r="GG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GH1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1680,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="189:189" x14ac:dyDescent="0.25">
-      <c r="GG10" s="1" t="s">
+    <row r="10" spans="190:190" x14ac:dyDescent="0.25">
+      <c r="GH10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:189" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:190" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2241,544 +2253,547 @@
       <c r="GG11" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="GH11" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="12" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="5">
+        <v>174.8</v>
+      </c>
+      <c r="C12" s="5">
         <v>173.6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>165.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>163.5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>162.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>157</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>153.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>152.6</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>152.1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>153.6</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>152.8</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>150.8</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>148.6</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>149.6</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>149.7</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>149</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>144.1</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>138.7</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>137.6</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>136.6</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>136.7</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>137.2</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>137.9</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Y12" s="6">
         <v>140</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <v>140.6</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <v>141.6</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>142.3</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>144.2</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>145.5</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AE12" s="6">
         <v>147</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>148.6</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <v>149.7</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AH12" s="5">
         <v>151.3</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AI12" s="5">
         <v>153.2</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AJ12" s="5">
         <v>154.6</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AK12" s="6">
         <v>154</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AL12" s="5">
         <v>152.4</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>151.5</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AN12" s="5">
         <v>148.8</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AO12" s="5">
         <v>147.9</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AP12" s="5">
         <v>147.2</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="5">
         <v>147.4</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AR12" s="6">
         <v>147</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AS12" s="5">
         <v>145.1</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AT12" s="5">
         <v>142.3</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AU12" s="5">
         <v>139.2</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AV12" s="5">
         <v>135.5</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AW12" s="5">
         <v>131.7</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AX12" s="5">
         <v>125.1</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AY12" s="5">
         <v>118.4</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AZ12" s="5">
         <v>110.3</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BA12" s="5">
         <v>95.3</v>
       </c>
-      <c r="BA12" s="6">
+      <c r="BB12" s="6">
         <v>100</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BC12" s="5">
         <v>116.4</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BD12" s="5">
         <v>123.9</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BE12" s="5">
         <v>126.9</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BF12" s="5">
         <v>126.7</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BG12" s="5">
         <v>122.1</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BH12" s="5">
         <v>114.4</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BI12" s="5">
         <v>105.6</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BJ12" s="5">
         <v>97.6</v>
       </c>
-      <c r="BJ12" s="5">
+      <c r="BK12" s="5">
         <v>93.1</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BL12" s="5">
         <v>89.6</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BM12" s="5">
         <v>87.3</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BN12" s="5">
         <v>85.8</v>
       </c>
-      <c r="BN12" s="5">
+      <c r="BO12" s="5">
         <v>84.5</v>
       </c>
-      <c r="BO12" s="5">
+      <c r="BP12" s="5">
         <v>83.3</v>
       </c>
-      <c r="BP12" s="5">
+      <c r="BQ12" s="5">
         <v>82.3</v>
       </c>
-      <c r="BQ12" s="5">
+      <c r="BR12" s="5">
         <v>81.9</v>
       </c>
-      <c r="BR12" s="5">
+      <c r="BS12" s="5">
         <v>81.3</v>
       </c>
-      <c r="BS12" s="5">
+      <c r="BT12" s="5">
         <v>80.7</v>
       </c>
-      <c r="BT12" s="5">
+      <c r="BU12" s="5">
         <v>80.4</v>
       </c>
-      <c r="BU12" s="5">
+      <c r="BV12" s="5">
         <v>80.3</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BW12" s="5">
         <v>80.6</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BX12" s="5">
         <v>80.7</v>
       </c>
-      <c r="BX12" s="5">
+      <c r="BY12" s="5">
         <v>81.1</v>
       </c>
-      <c r="BY12" s="5">
+      <c r="BZ12" s="5">
         <v>81.6</v>
       </c>
-      <c r="BZ12" s="5">
+      <c r="CA12" s="5">
         <v>82.3</v>
       </c>
-      <c r="CA12" s="5">
+      <c r="CB12" s="5">
         <v>82.6</v>
       </c>
-      <c r="CB12" s="5">
+      <c r="CC12" s="5">
         <v>82.2</v>
       </c>
-      <c r="CC12" s="5">
+      <c r="CD12" s="5">
         <v>82.8</v>
       </c>
-      <c r="CD12" s="5">
+      <c r="CE12" s="5">
         <v>83.8</v>
       </c>
-      <c r="CE12" s="5">
+      <c r="CF12" s="5">
         <v>87.6</v>
       </c>
-      <c r="CF12" s="5">
+      <c r="CG12" s="5">
         <v>90.3</v>
       </c>
-      <c r="CG12" s="5">
+      <c r="CH12" s="5">
         <v>91.1</v>
       </c>
-      <c r="CH12" s="5">
+      <c r="CI12" s="5">
         <v>94.9</v>
       </c>
-      <c r="CI12" s="5">
+      <c r="CJ12" s="5">
         <v>97.6</v>
       </c>
-      <c r="CJ12" s="5">
+      <c r="CK12" s="5">
         <v>100.4</v>
       </c>
-      <c r="CK12" s="5">
+      <c r="CL12" s="5">
         <v>98.9</v>
       </c>
-      <c r="CL12" s="5">
+      <c r="CM12" s="5">
         <v>95.9</v>
       </c>
-      <c r="CM12" s="5">
+      <c r="CN12" s="5">
         <v>91.1</v>
       </c>
-      <c r="CN12" s="5">
+      <c r="CO12" s="5">
         <v>84.3</v>
       </c>
-      <c r="CO12" s="5">
+      <c r="CP12" s="5">
         <v>75.4</v>
       </c>
-      <c r="CP12" s="5">
+      <c r="CQ12" s="5">
         <v>71.5</v>
       </c>
-      <c r="CQ12" s="5">
+      <c r="CR12" s="5">
         <v>78.3</v>
       </c>
-      <c r="CR12" s="5">
+      <c r="CS12" s="5">
         <v>90.1</v>
       </c>
-      <c r="CS12" s="5">
+      <c r="CT12" s="5">
         <v>98.3</v>
       </c>
-      <c r="CT12" s="5">
+      <c r="CU12" s="5">
         <v>108.4</v>
       </c>
-      <c r="CU12" s="6">
+      <c r="CV12" s="6">
         <v>113</v>
       </c>
-      <c r="CV12" s="5">
+      <c r="CW12" s="5">
         <v>118.2</v>
       </c>
-      <c r="CW12" s="5">
+      <c r="CX12" s="5">
         <v>119.2</v>
       </c>
-      <c r="CX12" s="5">
+      <c r="CY12" s="5">
         <v>123.7</v>
       </c>
-      <c r="CY12" s="5">
+      <c r="CZ12" s="5">
         <v>127.2</v>
       </c>
-      <c r="CZ12" s="5">
+      <c r="DA12" s="5">
         <v>129.7</v>
       </c>
-      <c r="DA12" s="5">
+      <c r="DB12" s="5">
         <v>122.3</v>
       </c>
-      <c r="DB12" s="5">
+      <c r="DC12" s="5">
         <v>117.9</v>
       </c>
-      <c r="DC12" s="5">
+      <c r="DD12" s="5">
         <v>112.7</v>
       </c>
-      <c r="DD12" s="5">
+      <c r="DE12" s="5">
         <v>111.1</v>
       </c>
-      <c r="DE12" s="5">
+      <c r="DF12" s="5">
         <v>109.8</v>
       </c>
-      <c r="DF12" s="5">
+      <c r="DG12" s="5">
         <v>106.9</v>
       </c>
-      <c r="DG12" s="5">
+      <c r="DH12" s="5">
         <v>104.5</v>
       </c>
-      <c r="DH12" s="5">
+      <c r="DI12" s="5">
         <v>93.6</v>
       </c>
-      <c r="DI12" s="5">
+      <c r="DJ12" s="5">
         <v>82.1</v>
       </c>
-      <c r="DJ12" s="5">
+      <c r="DK12" s="5">
         <v>75.1</v>
       </c>
-      <c r="DK12" s="5">
+      <c r="DL12" s="5">
         <v>71.1</v>
       </c>
-      <c r="DL12" s="5">
+      <c r="DM12" s="5">
         <v>64.9</v>
       </c>
-      <c r="DM12" s="5">
+      <c r="DN12" s="5">
         <v>58.3</v>
       </c>
-      <c r="DN12" s="5">
+      <c r="DO12" s="5">
         <v>55.3</v>
       </c>
-      <c r="DO12" s="5">
+      <c r="DP12" s="5">
         <v>53.8</v>
       </c>
-      <c r="DP12" s="5">
+      <c r="DQ12" s="5">
         <v>51.8</v>
       </c>
-      <c r="DQ12" s="5">
+      <c r="DR12" s="5">
         <v>49.9</v>
       </c>
-      <c r="DR12" s="5">
+      <c r="DS12" s="5">
         <v>47.6</v>
       </c>
-      <c r="DS12" s="5">
+      <c r="DT12" s="5">
         <v>46.8</v>
       </c>
-      <c r="DT12" s="5">
+      <c r="DU12" s="5">
         <v>45.6</v>
       </c>
-      <c r="DU12" s="5">
+      <c r="DV12" s="5">
         <v>42.1</v>
       </c>
-      <c r="DV12" s="5">
+      <c r="DW12" s="5">
         <v>40.3</v>
       </c>
-      <c r="DW12" s="6">
+      <c r="DX12" s="6">
         <v>42</v>
       </c>
-      <c r="DX12" s="5">
+      <c r="DY12" s="5">
         <v>41.8</v>
       </c>
-      <c r="DY12" s="5">
+      <c r="DZ12" s="5">
         <v>40.9</v>
       </c>
-      <c r="DZ12" s="5">
+      <c r="EA12" s="5">
         <v>38.3</v>
       </c>
-      <c r="EA12" s="5">
+      <c r="EB12" s="5">
         <v>37.7</v>
       </c>
-      <c r="EB12" s="5">
+      <c r="EC12" s="5">
         <v>35.5</v>
       </c>
-      <c r="EC12" s="5">
+      <c r="ED12" s="5">
         <v>34.5</v>
       </c>
-      <c r="ED12" s="6">
+      <c r="EE12" s="6">
         <v>34</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EF12" s="5">
         <v>32.6</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EG12" s="5">
         <v>32.2</v>
       </c>
-      <c r="EG12" s="5">
+      <c r="EH12" s="5">
         <v>31.4</v>
-      </c>
-      <c r="EH12" s="6">
-        <v>32</v>
       </c>
       <c r="EI12" s="6">
         <v>32</v>
       </c>
-      <c r="EJ12" s="5">
+      <c r="EJ12" s="6">
+        <v>32</v>
+      </c>
+      <c r="EK12" s="5">
         <v>29.7</v>
       </c>
-      <c r="EK12" s="5">
+      <c r="EL12" s="5">
         <v>28.5</v>
       </c>
-      <c r="EL12" s="5">
+      <c r="EM12" s="5">
         <v>27.9</v>
       </c>
-      <c r="EM12" s="5">
+      <c r="EN12" s="5">
         <v>25.3</v>
       </c>
-      <c r="EN12" s="5">
+      <c r="EO12" s="5">
         <v>23.9</v>
       </c>
-      <c r="EO12" s="5">
+      <c r="EP12" s="5">
         <v>26.3</v>
       </c>
-      <c r="EP12" s="5">
+      <c r="EQ12" s="5">
         <v>28.1</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="ER12" s="5">
         <v>28.7</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ES12" s="5">
         <v>30.2</v>
       </c>
-      <c r="ES12" s="6">
+      <c r="ET12" s="6">
         <v>31</v>
       </c>
-      <c r="ET12" s="5">
+      <c r="EU12" s="5">
         <v>33.1</v>
       </c>
-      <c r="EU12" s="5">
+      <c r="EV12" s="5">
         <v>34.6</v>
       </c>
-      <c r="EV12" s="5">
+      <c r="EW12" s="5">
         <v>35.5</v>
       </c>
-      <c r="EW12" s="5">
+      <c r="EX12" s="5">
         <v>37.2</v>
-      </c>
-      <c r="EX12" s="5">
-        <v>37.5</v>
       </c>
       <c r="EY12" s="5">
         <v>37.5</v>
       </c>
       <c r="EZ12" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="FA12" s="5">
         <v>37.2</v>
       </c>
-      <c r="FA12" s="5">
+      <c r="FB12" s="5">
         <v>36.1</v>
       </c>
-      <c r="FB12" s="5">
+      <c r="FC12" s="5">
         <v>34.6</v>
       </c>
-      <c r="FC12" s="5">
+      <c r="FD12" s="5">
         <v>33.5</v>
       </c>
-      <c r="FD12" s="5">
+      <c r="FE12" s="5">
         <v>32.8</v>
       </c>
-      <c r="FE12" s="6">
+      <c r="FF12" s="6">
         <v>32</v>
       </c>
-      <c r="FF12" s="5">
+      <c r="FG12" s="5">
         <v>32.2</v>
       </c>
-      <c r="FG12" s="6">
+      <c r="FH12" s="6">
         <v>34</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FI12" s="5">
         <v>34.6</v>
       </c>
-      <c r="FI12" s="5">
+      <c r="FJ12" s="5">
         <v>30.5</v>
       </c>
-      <c r="FJ12" s="5">
+      <c r="FK12" s="5">
         <v>23.9</v>
       </c>
-      <c r="FK12" s="5">
+      <c r="FL12" s="5">
         <v>20.4</v>
       </c>
-      <c r="FL12" s="5">
+      <c r="FM12" s="5">
         <v>17.7</v>
       </c>
-      <c r="FM12" s="5">
+      <c r="FN12" s="5">
         <v>15.1</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FO12" s="5">
         <v>12.7</v>
       </c>
-      <c r="FO12" s="5">
+      <c r="FP12" s="5">
         <v>11.9</v>
       </c>
-      <c r="FP12" s="5">
+      <c r="FQ12" s="5">
         <v>10.9</v>
       </c>
-      <c r="FQ12" s="5">
+      <c r="FR12" s="5">
         <v>10.4</v>
       </c>
-      <c r="FR12" s="5">
+      <c r="FS12" s="5">
         <v>9.8</v>
-      </c>
-      <c r="FS12" s="5">
-        <v>9.5</v>
       </c>
       <c r="FT12" s="5">
         <v>9.5</v>
       </c>
       <c r="FU12" s="5">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="FV12" s="5">
         <v>9.1</v>
       </c>
       <c r="FW12" s="5">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="FX12" s="5">
         <v>9.5</v>
@@ -2790,16 +2805,16 @@
         <v>9.5</v>
       </c>
       <c r="GA12" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="GB12" s="5">
         <v>9.8</v>
-      </c>
-      <c r="GB12" s="5">
-        <v>9.5</v>
       </c>
       <c r="GC12" s="5">
         <v>9.5</v>
       </c>
       <c r="GD12" s="5">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="GE12" s="5">
         <v>9.1</v>
@@ -2808,555 +2823,558 @@
         <v>9.1</v>
       </c>
       <c r="GG12" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="GH12" s="5">
         <v>8.9</v>
       </c>
     </row>
-    <row r="13" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="6">
+        <v>200</v>
+      </c>
+      <c r="B13" s="5">
+        <v>205.3</v>
+      </c>
+      <c r="C13" s="6">
         <v>197</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>189.6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>184.8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>185.4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>173.8</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>176.6</v>
-      </c>
-      <c r="H13" s="5">
-        <v>170.3</v>
       </c>
       <c r="I13" s="5">
         <v>170.3</v>
       </c>
       <c r="J13" s="5">
+        <v>170.3</v>
+      </c>
+      <c r="K13" s="5">
         <v>171.8</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>165.8</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>164.2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>164.4</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>162.6</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>165.9</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>162.2</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>155.8</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>152.9</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>152.1</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <v>150.3</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <v>150.8</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>153.6</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>152.4</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>156.6</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Z13" s="6">
         <v>159</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <v>160.8</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <v>163.7</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <v>164.4</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <v>166.1</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
         <v>167.6</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <v>169.8</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <v>172.9</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AH13" s="5">
         <v>175.9</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AI13" s="5">
         <v>177.1</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AJ13" s="5">
         <v>178.9</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AK13" s="5">
         <v>178.4</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AL13" s="5">
         <v>177.8</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AM13" s="6">
         <v>177</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AN13" s="5">
         <v>173.9</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AO13" s="5">
         <v>171.9</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AP13" s="5">
         <v>171.2</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AQ13" s="6">
         <v>171</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AR13" s="5">
         <v>170.8</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AS13" s="5">
         <v>166.9</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AT13" s="5">
         <v>161.1</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AU13" s="5">
         <v>155.1</v>
       </c>
-      <c r="AU13" s="6">
+      <c r="AV13" s="6">
         <v>147</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AW13" s="5">
         <v>136.4</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AX13" s="5">
         <v>128.4</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AY13" s="5">
         <v>118.6</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="AZ13" s="5">
         <v>109.5</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BA13" s="5">
         <v>95.3</v>
       </c>
-      <c r="BA13" s="6">
+      <c r="BB13" s="6">
         <v>100</v>
       </c>
-      <c r="BB13" s="5">
+      <c r="BC13" s="5">
         <v>110.1</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BD13" s="5">
         <v>115.7</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BE13" s="5">
         <v>117.8</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BF13" s="5">
         <v>117.1</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BG13" s="5">
         <v>112.7</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BH13" s="5">
         <v>108.1</v>
       </c>
-      <c r="BH13" s="5">
+      <c r="BI13" s="5">
         <v>100.6</v>
       </c>
-      <c r="BI13" s="6">
+      <c r="BJ13" s="6">
         <v>94</v>
       </c>
-      <c r="BJ13" s="5">
+      <c r="BK13" s="5">
         <v>91.3</v>
       </c>
-      <c r="BK13" s="5">
+      <c r="BL13" s="5">
         <v>89.2</v>
       </c>
-      <c r="BL13" s="5">
+      <c r="BM13" s="5">
         <v>88.2</v>
       </c>
-      <c r="BM13" s="5">
+      <c r="BN13" s="5">
         <v>86.8</v>
       </c>
-      <c r="BN13" s="5">
+      <c r="BO13" s="5">
         <v>85.6</v>
       </c>
-      <c r="BO13" s="5">
+      <c r="BP13" s="5">
         <v>84.8</v>
       </c>
-      <c r="BP13" s="5">
+      <c r="BQ13" s="5">
         <v>84.1</v>
       </c>
-      <c r="BQ13" s="6">
+      <c r="BR13" s="6">
         <v>84</v>
       </c>
-      <c r="BR13" s="5">
+      <c r="BS13" s="5">
         <v>83.6</v>
       </c>
-      <c r="BS13" s="5">
+      <c r="BT13" s="5">
         <v>83.3</v>
       </c>
-      <c r="BT13" s="6">
+      <c r="BU13" s="6">
         <v>83</v>
       </c>
-      <c r="BU13" s="5">
+      <c r="BV13" s="5">
         <v>82.7</v>
       </c>
-      <c r="BV13" s="5">
+      <c r="BW13" s="5">
         <v>83.1</v>
       </c>
-      <c r="BW13" s="5">
+      <c r="BX13" s="5">
         <v>83.2</v>
       </c>
-      <c r="BX13" s="5">
+      <c r="BY13" s="5">
         <v>83.8</v>
       </c>
-      <c r="BY13" s="5">
+      <c r="BZ13" s="5">
         <v>84.4</v>
       </c>
-      <c r="BZ13" s="5">
+      <c r="CA13" s="5">
         <v>85.1</v>
       </c>
-      <c r="CA13" s="5">
+      <c r="CB13" s="5">
         <v>85.4</v>
       </c>
-      <c r="CB13" s="6">
+      <c r="CC13" s="6">
         <v>85</v>
       </c>
-      <c r="CC13" s="5">
+      <c r="CD13" s="5">
         <v>85.4</v>
       </c>
-      <c r="CD13" s="6">
+      <c r="CE13" s="6">
         <v>87</v>
       </c>
-      <c r="CE13" s="5">
+      <c r="CF13" s="5">
         <v>88.9</v>
       </c>
-      <c r="CF13" s="6">
+      <c r="CG13" s="6">
         <v>92</v>
       </c>
-      <c r="CG13" s="5">
+      <c r="CH13" s="5">
         <v>94.4</v>
       </c>
-      <c r="CH13" s="5">
+      <c r="CI13" s="5">
         <v>97.2</v>
       </c>
-      <c r="CI13" s="5">
+      <c r="CJ13" s="5">
         <v>98.5</v>
       </c>
-      <c r="CJ13" s="6">
+      <c r="CK13" s="6">
         <v>101</v>
       </c>
-      <c r="CK13" s="5">
+      <c r="CL13" s="5">
         <v>100.7</v>
       </c>
-      <c r="CL13" s="5">
+      <c r="CM13" s="5">
         <v>98.8</v>
       </c>
-      <c r="CM13" s="5">
+      <c r="CN13" s="5">
         <v>93.8</v>
       </c>
-      <c r="CN13" s="6">
+      <c r="CO13" s="6">
         <v>87</v>
       </c>
-      <c r="CO13" s="5">
+      <c r="CP13" s="5">
         <v>76.5</v>
       </c>
-      <c r="CP13" s="5">
+      <c r="CQ13" s="5">
         <v>72.8</v>
       </c>
-      <c r="CQ13" s="5">
+      <c r="CR13" s="5">
         <v>81.3</v>
       </c>
-      <c r="CR13" s="5">
+      <c r="CS13" s="5">
         <v>97.2</v>
       </c>
-      <c r="CS13" s="5">
+      <c r="CT13" s="5">
         <v>106.3</v>
       </c>
-      <c r="CT13" s="5">
+      <c r="CU13" s="5">
         <v>116.8</v>
       </c>
-      <c r="CU13" s="5">
+      <c r="CV13" s="5">
         <v>123.2</v>
       </c>
-      <c r="CV13" s="5">
+      <c r="CW13" s="5">
         <v>128.9</v>
       </c>
-      <c r="CW13" s="5">
+      <c r="CX13" s="5">
         <v>129.9</v>
       </c>
-      <c r="CX13" s="5">
+      <c r="CY13" s="5">
         <v>131.7</v>
       </c>
-      <c r="CY13" s="5">
+      <c r="CZ13" s="5">
         <v>137.8</v>
       </c>
-      <c r="CZ13" s="5">
+      <c r="DA13" s="5">
         <v>140.9</v>
       </c>
-      <c r="DA13" s="5">
+      <c r="DB13" s="5">
         <v>138.4</v>
       </c>
-      <c r="DB13" s="5">
+      <c r="DC13" s="5">
         <v>135.1</v>
       </c>
-      <c r="DC13" s="5">
+      <c r="DD13" s="5">
         <v>133.2</v>
       </c>
-      <c r="DD13" s="5">
+      <c r="DE13" s="5">
         <v>130.5</v>
       </c>
-      <c r="DE13" s="5">
+      <c r="DF13" s="5">
         <v>129.6</v>
       </c>
-      <c r="DF13" s="5">
+      <c r="DG13" s="5">
         <v>126.7</v>
       </c>
-      <c r="DG13" s="5">
+      <c r="DH13" s="5">
         <v>125.8</v>
       </c>
-      <c r="DH13" s="5">
+      <c r="DI13" s="5">
         <v>107.6</v>
       </c>
-      <c r="DI13" s="5">
+      <c r="DJ13" s="5">
         <v>95.2</v>
       </c>
-      <c r="DJ13" s="5">
+      <c r="DK13" s="5">
         <v>84.5</v>
       </c>
-      <c r="DK13" s="5">
+      <c r="DL13" s="5">
         <v>79.4</v>
       </c>
-      <c r="DL13" s="5">
+      <c r="DM13" s="5">
         <v>69.8</v>
       </c>
-      <c r="DM13" s="5">
+      <c r="DN13" s="5">
         <v>60.4</v>
       </c>
-      <c r="DN13" s="5">
+      <c r="DO13" s="5">
         <v>54.7</v>
       </c>
-      <c r="DO13" s="5">
+      <c r="DP13" s="5">
         <v>52.7</v>
       </c>
-      <c r="DP13" s="5">
+      <c r="DQ13" s="5">
         <v>51.3</v>
       </c>
-      <c r="DQ13" s="5">
+      <c r="DR13" s="5">
         <v>50.5</v>
       </c>
-      <c r="DR13" s="5">
+      <c r="DS13" s="5">
         <v>48.1</v>
       </c>
-      <c r="DS13" s="5">
+      <c r="DT13" s="5">
         <v>46.5</v>
       </c>
-      <c r="DT13" s="5">
+      <c r="DU13" s="5">
         <v>44.8</v>
       </c>
-      <c r="DU13" s="5">
+      <c r="DV13" s="5">
         <v>41.8</v>
       </c>
-      <c r="DV13" s="6">
+      <c r="DW13" s="6">
         <v>39</v>
       </c>
-      <c r="DW13" s="5">
+      <c r="DX13" s="5">
         <v>41.5</v>
       </c>
-      <c r="DX13" s="5">
+      <c r="DY13" s="5">
         <v>40.6</v>
       </c>
-      <c r="DY13" s="5">
+      <c r="DZ13" s="5">
         <v>40.3</v>
       </c>
-      <c r="DZ13" s="5">
+      <c r="EA13" s="5">
         <v>37.4</v>
       </c>
-      <c r="EA13" s="5">
+      <c r="EB13" s="5">
         <v>36.9</v>
       </c>
-      <c r="EB13" s="6">
+      <c r="EC13" s="6">
         <v>35</v>
-      </c>
-      <c r="EC13" s="6">
-        <v>34</v>
       </c>
       <c r="ED13" s="6">
         <v>34</v>
       </c>
       <c r="EE13" s="6">
+        <v>34</v>
+      </c>
+      <c r="EF13" s="6">
         <v>33</v>
       </c>
-      <c r="EF13" s="5">
+      <c r="EG13" s="5">
         <v>33.3</v>
-      </c>
-      <c r="EG13" s="5">
-        <v>32.6</v>
       </c>
       <c r="EH13" s="5">
         <v>32.6</v>
       </c>
       <c r="EI13" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="EJ13" s="5">
         <v>33.6</v>
       </c>
-      <c r="EJ13" s="5">
+      <c r="EK13" s="5">
         <v>31.4</v>
       </c>
-      <c r="EK13" s="5">
+      <c r="EL13" s="5">
         <v>30.4</v>
       </c>
-      <c r="EL13" s="5">
+      <c r="EM13" s="5">
         <v>29.6</v>
       </c>
-      <c r="EM13" s="6">
+      <c r="EN13" s="6">
         <v>26</v>
       </c>
-      <c r="EN13" s="5">
+      <c r="EO13" s="5">
         <v>24.5</v>
       </c>
-      <c r="EO13" s="5">
+      <c r="EP13" s="5">
         <v>26.1</v>
       </c>
-      <c r="EP13" s="5">
+      <c r="EQ13" s="5">
         <v>28.1</v>
       </c>
-      <c r="EQ13" s="5">
+      <c r="ER13" s="5">
         <v>28.2</v>
       </c>
-      <c r="ER13" s="5">
+      <c r="ES13" s="5">
         <v>29.7</v>
       </c>
-      <c r="ES13" s="5">
+      <c r="ET13" s="5">
         <v>31.8</v>
       </c>
-      <c r="ET13" s="5">
+      <c r="EU13" s="5">
         <v>33.4</v>
       </c>
-      <c r="EU13" s="5">
+      <c r="EV13" s="5">
         <v>35.8</v>
       </c>
-      <c r="EV13" s="5">
+      <c r="EW13" s="5">
         <v>36.2</v>
       </c>
-      <c r="EW13" s="5">
+      <c r="EX13" s="5">
         <v>36.9</v>
       </c>
-      <c r="EX13" s="5">
+      <c r="EY13" s="5">
         <v>35.5</v>
       </c>
-      <c r="EY13" s="5">
+      <c r="EZ13" s="5">
         <v>35.4</v>
       </c>
-      <c r="EZ13" s="6">
+      <c r="FA13" s="6">
         <v>34</v>
       </c>
-      <c r="FA13" s="5">
+      <c r="FB13" s="5">
         <v>32.6</v>
       </c>
-      <c r="FB13" s="5">
+      <c r="FC13" s="5">
         <v>30.6</v>
       </c>
-      <c r="FC13" s="5">
+      <c r="FD13" s="5">
         <v>29.2</v>
       </c>
-      <c r="FD13" s="5">
+      <c r="FE13" s="5">
         <v>28.2</v>
       </c>
-      <c r="FE13" s="6">
+      <c r="FF13" s="6">
         <v>27</v>
       </c>
-      <c r="FF13" s="5">
+      <c r="FG13" s="5">
         <v>26.4</v>
       </c>
-      <c r="FG13" s="5">
+      <c r="FH13" s="5">
         <v>27.4</v>
       </c>
-      <c r="FH13" s="5">
+      <c r="FI13" s="5">
         <v>27.3</v>
       </c>
-      <c r="FI13" s="5">
+      <c r="FJ13" s="5">
         <v>23.7</v>
       </c>
-      <c r="FJ13" s="5">
+      <c r="FK13" s="5">
         <v>18.7</v>
       </c>
-      <c r="FK13" s="5">
+      <c r="FL13" s="5">
         <v>16.2</v>
       </c>
-      <c r="FL13" s="5">
+      <c r="FM13" s="5">
         <v>14.3</v>
       </c>
-      <c r="FM13" s="5">
+      <c r="FN13" s="5">
         <v>12.3</v>
       </c>
-      <c r="FN13" s="5">
+      <c r="FO13" s="5">
         <v>10.6</v>
       </c>
-      <c r="FO13" s="5">
+      <c r="FP13" s="5">
         <v>9.8</v>
       </c>
-      <c r="FP13" s="6">
+      <c r="FQ13" s="6">
         <v>9</v>
       </c>
-      <c r="FQ13" s="5">
+      <c r="FR13" s="5">
         <v>8.4</v>
-      </c>
-      <c r="FR13" s="5">
-        <v>7.9</v>
       </c>
       <c r="FS13" s="5">
         <v>7.9</v>
       </c>
       <c r="FT13" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="FU13" s="5">
         <v>7.6</v>
       </c>
-      <c r="FU13" s="5">
+      <c r="FV13" s="5">
         <v>7.5</v>
       </c>
-      <c r="FV13" s="5">
+      <c r="FW13" s="5">
         <v>7.6</v>
       </c>
-      <c r="FW13" s="5">
+      <c r="FX13" s="5">
         <v>7.7</v>
-      </c>
-      <c r="FX13" s="5">
-        <v>7.9</v>
       </c>
       <c r="FY13" s="5">
         <v>7.9</v>
       </c>
-      <c r="FZ13" s="6">
-        <v>8</v>
+      <c r="FZ13" s="5">
+        <v>7.9</v>
       </c>
       <c r="GA13" s="6">
         <v>8</v>
@@ -3364,553 +3382,556 @@
       <c r="GB13" s="6">
         <v>8</v>
       </c>
-      <c r="GC13" s="5">
-        <v>7.9</v>
+      <c r="GC13" s="6">
+        <v>8</v>
       </c>
       <c r="GD13" s="5">
         <v>7.9</v>
       </c>
       <c r="GE13" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="GF13" s="5">
         <v>7.8</v>
       </c>
-      <c r="GF13" s="5">
+      <c r="GG13" s="5">
         <v>7.7</v>
       </c>
-      <c r="GG13" s="5">
+      <c r="GH13" s="5">
         <v>7.4</v>
       </c>
     </row>
-    <row r="14" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="5">
+        <v>167.9</v>
+      </c>
+      <c r="C14" s="5">
         <v>168.4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>159.9</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>158.8</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>157.1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>153.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>148.8</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>148.7</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>148.1</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>149.6</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>150</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>148.1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>145.2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>146.8</v>
-      </c>
-      <c r="O14" s="5">
-        <v>146.1</v>
       </c>
       <c r="P14" s="5">
         <v>146.1</v>
       </c>
       <c r="Q14" s="5">
+        <v>146.1</v>
+      </c>
+      <c r="R14" s="5">
         <v>141.6</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>135.6</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>134.5</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>133.7</v>
-      </c>
-      <c r="U14" s="5">
-        <v>133.8</v>
       </c>
       <c r="V14" s="5">
         <v>133.8</v>
       </c>
       <c r="W14" s="5">
+        <v>133.8</v>
+      </c>
+      <c r="X14" s="5">
         <v>134.9</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <v>136.5</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <v>136.6</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AA14" s="5">
         <v>137.4</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <v>137.7</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AC14" s="5">
         <v>139.8</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AD14" s="5">
         <v>140.9</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AE14" s="5">
         <v>142.5</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AF14" s="5">
         <v>143.9</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AG14" s="5">
         <v>144.5</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AH14" s="5">
         <v>145.7</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AI14" s="5">
         <v>147.6</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AJ14" s="5">
         <v>148.9</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AK14" s="6">
         <v>148</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AL14" s="5">
         <v>145.9</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AM14" s="5">
         <v>144.8</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AN14" s="5">
         <v>142.3</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AO14" s="5">
         <v>141.6</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AP14" s="6">
         <v>141</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AQ14" s="5">
         <v>141.2</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AR14" s="5">
         <v>140.8</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AS14" s="5">
         <v>139.2</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AT14" s="5">
         <v>137.3</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AU14" s="6">
         <v>135</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AV14" s="5">
         <v>132.6</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AW14" s="5">
         <v>130.5</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AX14" s="5">
         <v>124.3</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AY14" s="5">
         <v>118.4</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="AZ14" s="5">
         <v>110.5</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="BA14" s="5">
         <v>95.3</v>
       </c>
-      <c r="BA14" s="6">
+      <c r="BB14" s="6">
         <v>100</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BC14" s="5">
         <v>117.8</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BD14" s="5">
         <v>125.8</v>
-      </c>
-      <c r="BD14" s="6">
-        <v>129</v>
       </c>
       <c r="BE14" s="6">
         <v>129</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BF14" s="6">
+        <v>129</v>
+      </c>
+      <c r="BG14" s="5">
         <v>124.4</v>
       </c>
-      <c r="BG14" s="6">
+      <c r="BH14" s="6">
         <v>116</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BI14" s="5">
         <v>107.1</v>
       </c>
-      <c r="BI14" s="5">
+      <c r="BJ14" s="5">
         <v>98.8</v>
       </c>
-      <c r="BJ14" s="5">
+      <c r="BK14" s="5">
         <v>93.8</v>
       </c>
-      <c r="BK14" s="6">
+      <c r="BL14" s="6">
         <v>90</v>
       </c>
-      <c r="BL14" s="5">
+      <c r="BM14" s="5">
         <v>87.2</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BN14" s="5">
         <v>85.7</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BO14" s="5">
         <v>84.4</v>
       </c>
-      <c r="BO14" s="5">
+      <c r="BP14" s="5">
         <v>83.1</v>
       </c>
-      <c r="BP14" s="5">
+      <c r="BQ14" s="5">
         <v>81.9</v>
       </c>
-      <c r="BQ14" s="5">
+      <c r="BR14" s="5">
         <v>81.4</v>
       </c>
-      <c r="BR14" s="5">
+      <c r="BS14" s="5">
         <v>80.8</v>
       </c>
-      <c r="BS14" s="5">
+      <c r="BT14" s="5">
         <v>79.9</v>
-      </c>
-      <c r="BT14" s="5">
-        <v>79.6</v>
       </c>
       <c r="BU14" s="5">
         <v>79.6</v>
       </c>
       <c r="BV14" s="5">
-        <v>79.9</v>
+        <v>79.6</v>
       </c>
       <c r="BW14" s="5">
         <v>79.9</v>
       </c>
       <c r="BX14" s="5">
+        <v>79.9</v>
+      </c>
+      <c r="BY14" s="5">
         <v>80.2</v>
       </c>
-      <c r="BY14" s="5">
+      <c r="BZ14" s="5">
         <v>80.6</v>
       </c>
-      <c r="BZ14" s="5">
+      <c r="CA14" s="5">
         <v>81.3</v>
       </c>
-      <c r="CA14" s="5">
+      <c r="CB14" s="5">
         <v>81.6</v>
       </c>
-      <c r="CB14" s="5">
+      <c r="CC14" s="5">
         <v>81.4</v>
       </c>
-      <c r="CC14" s="6">
+      <c r="CD14" s="6">
         <v>82</v>
       </c>
-      <c r="CD14" s="5">
+      <c r="CE14" s="5">
         <v>82.7</v>
       </c>
-      <c r="CE14" s="5">
+      <c r="CF14" s="5">
         <v>87.3</v>
       </c>
-      <c r="CF14" s="5">
+      <c r="CG14" s="5">
         <v>89.8</v>
       </c>
-      <c r="CG14" s="6">
+      <c r="CH14" s="6">
         <v>90</v>
       </c>
-      <c r="CH14" s="5">
+      <c r="CI14" s="5">
         <v>94.2</v>
       </c>
-      <c r="CI14" s="5">
+      <c r="CJ14" s="5">
         <v>97.7</v>
       </c>
-      <c r="CJ14" s="5">
+      <c r="CK14" s="5">
         <v>100.4</v>
       </c>
-      <c r="CK14" s="5">
+      <c r="CL14" s="5">
         <v>98.5</v>
       </c>
-      <c r="CL14" s="5">
+      <c r="CM14" s="5">
         <v>95.1</v>
       </c>
-      <c r="CM14" s="5">
+      <c r="CN14" s="5">
         <v>90.4</v>
       </c>
-      <c r="CN14" s="5">
+      <c r="CO14" s="5">
         <v>83.5</v>
       </c>
-      <c r="CO14" s="5">
+      <c r="CP14" s="5">
         <v>75.2</v>
       </c>
-      <c r="CP14" s="5">
+      <c r="CQ14" s="5">
         <v>71.2</v>
       </c>
-      <c r="CQ14" s="5">
+      <c r="CR14" s="5">
         <v>76.8</v>
       </c>
-      <c r="CR14" s="5">
+      <c r="CS14" s="5">
         <v>85.4</v>
       </c>
-      <c r="CS14" s="6">
+      <c r="CT14" s="6">
         <v>93</v>
       </c>
-      <c r="CT14" s="5">
+      <c r="CU14" s="5">
         <v>102.9</v>
       </c>
-      <c r="CU14" s="5">
+      <c r="CV14" s="5">
         <v>106.2</v>
       </c>
-      <c r="CV14" s="5">
+      <c r="CW14" s="5">
         <v>110.9</v>
       </c>
-      <c r="CW14" s="5">
+      <c r="CX14" s="5">
         <v>111.9</v>
       </c>
-      <c r="CX14" s="5">
+      <c r="CY14" s="5">
         <v>118.8</v>
       </c>
-      <c r="CY14" s="5">
+      <c r="CZ14" s="5">
         <v>119.9</v>
       </c>
-      <c r="CZ14" s="5">
+      <c r="DA14" s="5">
         <v>122.2</v>
       </c>
-      <c r="DA14" s="5">
+      <c r="DB14" s="5">
         <v>110.8</v>
       </c>
-      <c r="DB14" s="5">
+      <c r="DC14" s="5">
         <v>105.5</v>
       </c>
-      <c r="DC14" s="5">
+      <c r="DD14" s="5">
         <v>97.7</v>
       </c>
-      <c r="DD14" s="5">
+      <c r="DE14" s="5">
         <v>96.8</v>
       </c>
-      <c r="DE14" s="5">
+      <c r="DF14" s="5">
         <v>95.2</v>
       </c>
-      <c r="DF14" s="5">
+      <c r="DG14" s="5">
         <v>92.3</v>
       </c>
-      <c r="DG14" s="5">
+      <c r="DH14" s="5">
         <v>88.7</v>
       </c>
-      <c r="DH14" s="5">
+      <c r="DI14" s="5">
         <v>83.4</v>
       </c>
-      <c r="DI14" s="5">
+      <c r="DJ14" s="5">
         <v>72.7</v>
       </c>
-      <c r="DJ14" s="5">
+      <c r="DK14" s="5">
         <v>68.5</v>
       </c>
-      <c r="DK14" s="5">
+      <c r="DL14" s="5">
         <v>65.4</v>
       </c>
-      <c r="DL14" s="5">
+      <c r="DM14" s="5">
         <v>61.6</v>
       </c>
-      <c r="DM14" s="5">
+      <c r="DN14" s="5">
         <v>57.2</v>
       </c>
-      <c r="DN14" s="5">
+      <c r="DO14" s="5">
         <v>56.3</v>
       </c>
-      <c r="DO14" s="5">
+      <c r="DP14" s="5">
         <v>55.2</v>
       </c>
-      <c r="DP14" s="5">
+      <c r="DQ14" s="5">
         <v>52.7</v>
       </c>
-      <c r="DQ14" s="5">
+      <c r="DR14" s="5">
         <v>49.9</v>
       </c>
-      <c r="DR14" s="5">
+      <c r="DS14" s="5">
         <v>47.7</v>
       </c>
-      <c r="DS14" s="5">
+      <c r="DT14" s="5">
         <v>47.5</v>
       </c>
-      <c r="DT14" s="5">
+      <c r="DU14" s="5">
         <v>46.7</v>
       </c>
-      <c r="DU14" s="5">
+      <c r="DV14" s="5">
         <v>42.8</v>
       </c>
-      <c r="DV14" s="5">
+      <c r="DW14" s="5">
         <v>41.8</v>
       </c>
-      <c r="DW14" s="5">
+      <c r="DX14" s="5">
         <v>42.7</v>
       </c>
-      <c r="DX14" s="5">
+      <c r="DY14" s="5">
         <v>43.1</v>
       </c>
-      <c r="DY14" s="5">
+      <c r="DZ14" s="5">
         <v>41.6</v>
       </c>
-      <c r="DZ14" s="5">
+      <c r="EA14" s="5">
         <v>39.4</v>
       </c>
-      <c r="EA14" s="5">
+      <c r="EB14" s="5">
         <v>38.7</v>
       </c>
-      <c r="EB14" s="5">
+      <c r="EC14" s="5">
         <v>36.4</v>
       </c>
-      <c r="EC14" s="5">
+      <c r="ED14" s="5">
         <v>35.2</v>
       </c>
-      <c r="ED14" s="5">
+      <c r="EE14" s="5">
         <v>34.4</v>
       </c>
-      <c r="EE14" s="5">
+      <c r="EF14" s="5">
         <v>32.6</v>
       </c>
-      <c r="EF14" s="5">
+      <c r="EG14" s="5">
         <v>31.6</v>
       </c>
-      <c r="EG14" s="5">
+      <c r="EH14" s="5">
         <v>30.7</v>
       </c>
-      <c r="EH14" s="5">
+      <c r="EI14" s="5">
         <v>31.4</v>
       </c>
-      <c r="EI14" s="6">
+      <c r="EJ14" s="6">
         <v>31</v>
       </c>
-      <c r="EJ14" s="5">
+      <c r="EK14" s="5">
         <v>28.3</v>
       </c>
-      <c r="EK14" s="5">
+      <c r="EL14" s="5">
         <v>26.8</v>
       </c>
-      <c r="EL14" s="5">
+      <c r="EM14" s="5">
         <v>26.5</v>
       </c>
-      <c r="EM14" s="5">
+      <c r="EN14" s="5">
         <v>24.8</v>
       </c>
-      <c r="EN14" s="5">
+      <c r="EO14" s="5">
         <v>23.5</v>
       </c>
-      <c r="EO14" s="5">
+      <c r="EP14" s="5">
         <v>26.5</v>
       </c>
-      <c r="EP14" s="5">
+      <c r="EQ14" s="5">
         <v>28.5</v>
       </c>
-      <c r="EQ14" s="5">
+      <c r="ER14" s="5">
         <v>29.9</v>
       </c>
-      <c r="ER14" s="5">
+      <c r="ES14" s="5">
         <v>31.3</v>
       </c>
-      <c r="ES14" s="5">
+      <c r="ET14" s="5">
         <v>30.9</v>
       </c>
-      <c r="ET14" s="5">
+      <c r="EU14" s="5">
         <v>33.1</v>
       </c>
-      <c r="EU14" s="5">
+      <c r="EV14" s="5">
         <v>33.7</v>
       </c>
-      <c r="EV14" s="5">
+      <c r="EW14" s="5">
         <v>35.4</v>
       </c>
-      <c r="EW14" s="5">
+      <c r="EX14" s="5">
         <v>38.1</v>
       </c>
-      <c r="EX14" s="5">
+      <c r="EY14" s="5">
         <v>39.6</v>
       </c>
-      <c r="EY14" s="5">
+      <c r="EZ14" s="5">
         <v>40.6</v>
       </c>
-      <c r="EZ14" s="5">
+      <c r="FA14" s="5">
         <v>41.2</v>
       </c>
-      <c r="FA14" s="5">
+      <c r="FB14" s="5">
         <v>40.6</v>
       </c>
-      <c r="FB14" s="5">
+      <c r="FC14" s="5">
         <v>39.6</v>
       </c>
-      <c r="FC14" s="5">
+      <c r="FD14" s="5">
         <v>38.7</v>
       </c>
-      <c r="FD14" s="6">
+      <c r="FE14" s="6">
         <v>39</v>
       </c>
-      <c r="FE14" s="5">
+      <c r="FF14" s="5">
         <v>38.7</v>
       </c>
-      <c r="FF14" s="6">
+      <c r="FG14" s="6">
         <v>40</v>
       </c>
-      <c r="FG14" s="5">
+      <c r="FH14" s="5">
         <v>43.1</v>
       </c>
-      <c r="FH14" s="5">
+      <c r="FI14" s="5">
         <v>44.3</v>
       </c>
-      <c r="FI14" s="5">
+      <c r="FJ14" s="5">
         <v>39.6</v>
       </c>
-      <c r="FJ14" s="6">
+      <c r="FK14" s="6">
         <v>31</v>
       </c>
-      <c r="FK14" s="5">
+      <c r="FL14" s="5">
         <v>25.8</v>
       </c>
-      <c r="FL14" s="6">
+      <c r="FM14" s="6">
         <v>22</v>
       </c>
-      <c r="FM14" s="5">
+      <c r="FN14" s="5">
         <v>18.9</v>
       </c>
-      <c r="FN14" s="5">
+      <c r="FO14" s="5">
         <v>15.8</v>
       </c>
-      <c r="FO14" s="5">
+      <c r="FP14" s="5">
         <v>14.6</v>
       </c>
-      <c r="FP14" s="5">
+      <c r="FQ14" s="5">
         <v>13.3</v>
       </c>
-      <c r="FQ14" s="5">
+      <c r="FR14" s="5">
         <v>12.7</v>
       </c>
-      <c r="FR14" s="5">
+      <c r="FS14" s="5">
         <v>12.1</v>
-      </c>
-      <c r="FS14" s="5">
-        <v>11.7</v>
       </c>
       <c r="FT14" s="5">
         <v>11.7</v>
       </c>
       <c r="FU14" s="5">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="FV14" s="5">
         <v>11.5</v>
@@ -3928,13 +3949,13 @@
         <v>11.5</v>
       </c>
       <c r="GA14" s="5">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="GB14" s="5">
         <v>11.7</v>
       </c>
       <c r="GC14" s="5">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="GD14" s="5">
         <v>11.5</v>
@@ -3943,85 +3964,99 @@
         <v>11.5</v>
       </c>
       <c r="GF14" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="GG14" s="5">
         <v>11.2</v>
       </c>
-      <c r="GG14" s="5">
+      <c r="GH14" s="5">
         <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>212</v>
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>214</v>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="A30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/INTLINE/data/576/DOS/M212261 - Private Residential Property Price Index By Type Of Property Quarterly.xlsx
+++ b/INTLINE/data/576/DOS/M212261 - Private Residential Property Price Index By Type Of Property Quarterly.xlsx
@@ -661,7 +661,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
